--- a/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/CT600OnlineLookALike.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Company 2026-03-31 (Mar26) Excel 2007/CT600OnlineLookALike.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A9CBEA-9632-C04D-BFA1-C02605786AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323643C-779B-1143-8F0A-C6F7C4D7D4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5891,10 +5891,10 @@
             <v>365</v>
           </cell>
           <cell r="C33">
-            <v>45383</v>
+            <v>45748</v>
           </cell>
           <cell r="E33">
-            <v>2024</v>
+            <v>2025</v>
           </cell>
           <cell r="G33">
             <v>19</v>
@@ -5905,10 +5905,10 @@
             <v>365</v>
           </cell>
           <cell r="D34">
-            <v>46112</v>
+            <v>46477</v>
           </cell>
           <cell r="E34">
-            <v>2025</v>
+            <v>2026</v>
           </cell>
           <cell r="G34">
             <v>19</v>
@@ -6349,7 +6349,7 @@
       <c r="I2" s="283"/>
       <c r="J2" s="400">
         <f>H46</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="K2" s="400"/>
       <c r="L2" s="400"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="N2" s="397">
         <f>IF(H59&gt;0,H59,H51)</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="O2" s="397"/>
       <c r="P2" s="345"/>
@@ -7224,7 +7224,7 @@
       <c r="G46" s="43"/>
       <c r="H46" s="308">
         <f>[1]CorporationTax!$C$33</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="I46" s="309"/>
       <c r="J46" s="411"/>
@@ -7330,7 +7330,7 @@
       <c r="G51" s="45"/>
       <c r="H51" s="308">
         <f>[1]CorporationTax!$D$34</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="I51" s="309"/>
       <c r="J51" s="413"/>
@@ -9154,7 +9154,7 @@
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="234" t="str">
         <f>"Profit and Loss account for the year ended "&amp;TEXT(N2,"dd Mmm yyyy")</f>
-        <v>Profit and Loss account for the year ended 31 Mar 2026</v>
+        <v>Profit and Loss account for the year ended 31 Mar 2027</v>
       </c>
       <c r="B151" s="235"/>
       <c r="C151" s="235"/>
@@ -9261,7 +9261,7 @@
       <c r="E156" s="72"/>
       <c r="F156" s="418" t="str">
         <f>TEXT((YEARFRAC(J2,N2)*12),"0")&amp;" months to "&amp;TEXT(N2,"dd Mmm yyyy")&amp;"."</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G156" s="418"/>
       <c r="H156" s="418"/>
@@ -10493,7 +10493,7 @@
       <c r="E217" s="72"/>
       <c r="F217" s="238" t="str">
         <f>F156</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G217" s="239"/>
       <c r="H217" s="239"/>
@@ -10906,7 +10906,7 @@
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="234" t="str">
         <f>"Balance sheet for the year ended "&amp;TEXT(N2,"dd Mmm yyyy")</f>
-        <v>Balance sheet for the year ended 31 Mar 2026</v>
+        <v>Balance sheet for the year ended 31 Mar 2027</v>
       </c>
       <c r="B237" s="235"/>
       <c r="C237" s="235"/>
@@ -11015,7 +11015,7 @@
       <c r="E242" s="72"/>
       <c r="F242" s="238" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G242" s="239"/>
       <c r="H242" s="239"/>
@@ -11301,7 +11301,7 @@
       <c r="E255" s="72"/>
       <c r="F255" s="238" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G255" s="239"/>
       <c r="H255" s="239"/>
@@ -12114,7 +12114,7 @@
     <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" s="234" t="str">
         <f>"Balance sheet for the year ended "&amp;TEXT(N2,"dd Mmm yyyy")</f>
-        <v>Balance sheet for the year ended 31 Mar 2026</v>
+        <v>Balance sheet for the year ended 31 Mar 2027</v>
       </c>
       <c r="B292" s="235"/>
       <c r="C292" s="235"/>
@@ -12202,7 +12202,7 @@
       <c r="E296" s="72"/>
       <c r="F296" s="140" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G296" s="140"/>
       <c r="H296" s="140"/>
@@ -15248,7 +15248,7 @@
       <c r="E470" s="72"/>
       <c r="F470" s="238" t="str">
         <f>F156</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G470" s="239"/>
       <c r="H470" s="239"/>
@@ -15719,7 +15719,7 @@
       <c r="E495" s="72"/>
       <c r="F495" s="238" t="str">
         <f>F156</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G495" s="239"/>
       <c r="H495" s="239"/>
@@ -16349,7 +16349,7 @@
       <c r="E527" s="72"/>
       <c r="F527" s="238" t="str">
         <f>F156</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G527" s="239"/>
       <c r="H527" s="239"/>
@@ -17463,7 +17463,7 @@
       <c r="E581" s="72"/>
       <c r="F581" s="238" t="str">
         <f>F156</f>
-        <v>24 months to 31 Mar 2026.</v>
+        <v>24 months to 31 Mar 2027.</v>
       </c>
       <c r="G581" s="238"/>
       <c r="H581" s="238"/>
@@ -17971,7 +17971,7 @@
     <row r="609" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A609" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B609" s="225"/>
       <c r="C609" s="283"/>
@@ -18338,7 +18338,7 @@
     <row r="626" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A626" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B626" s="305"/>
       <c r="C626" s="306"/>
@@ -18449,7 +18449,7 @@
     <row r="632" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A632" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B632" s="225"/>
       <c r="C632" s="283"/>
@@ -18732,7 +18732,7 @@
     <row r="645" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A645" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B645" s="225"/>
       <c r="C645" s="283"/>
@@ -18858,7 +18858,7 @@
     <row r="651" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A651" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B651" s="225"/>
       <c r="C651" s="283"/>
@@ -19176,7 +19176,7 @@
     <row r="668" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A668" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B668" s="225"/>
       <c r="C668" s="283"/>
@@ -19543,7 +19543,7 @@
     <row r="685" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A685" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B685" s="305"/>
       <c r="C685" s="306"/>
@@ -19654,7 +19654,7 @@
     <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B691" s="225"/>
       <c r="C691" s="283"/>
@@ -19937,7 +19937,7 @@
     <row r="704" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A704" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B704" s="225"/>
       <c r="C704" s="283"/>
@@ -20063,7 +20063,7 @@
     <row r="710" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A710" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B710" s="225"/>
       <c r="C710" s="283"/>
@@ -20381,7 +20381,7 @@
     <row r="727" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A727" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B727" s="225"/>
       <c r="C727" s="283"/>
@@ -20748,7 +20748,7 @@
     <row r="744" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A744" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B744" s="305"/>
       <c r="C744" s="306"/>
@@ -20859,7 +20859,7 @@
     <row r="750" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A750" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B750" s="225"/>
       <c r="C750" s="283"/>
@@ -21142,7 +21142,7 @@
     <row r="763" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A763" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B763" s="225"/>
       <c r="C763" s="283"/>
@@ -21268,7 +21268,7 @@
     <row r="769" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A769" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B769" s="225"/>
       <c r="C769" s="283"/>
@@ -21586,7 +21586,7 @@
     <row r="786" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A786" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B786" s="225"/>
       <c r="C786" s="283"/>
@@ -21953,7 +21953,7 @@
     <row r="803" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A803" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B803" s="305"/>
       <c r="C803" s="306"/>
@@ -22064,7 +22064,7 @@
     <row r="809" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A809" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B809" s="225"/>
       <c r="C809" s="283"/>
@@ -22347,7 +22347,7 @@
     <row r="822" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A822" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B822" s="225"/>
       <c r="C822" s="283"/>
@@ -22473,7 +22473,7 @@
     <row r="828" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A828" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B828" s="225"/>
       <c r="C828" s="283"/>
@@ -22791,7 +22791,7 @@
     <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B845" s="225"/>
       <c r="C845" s="283"/>
@@ -23158,7 +23158,7 @@
     <row r="862" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A862" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B862" s="305"/>
       <c r="C862" s="306"/>
@@ -23269,7 +23269,7 @@
     <row r="868" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A868" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B868" s="225"/>
       <c r="C868" s="283"/>
@@ -23552,7 +23552,7 @@
     <row r="881" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A881" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B881" s="225"/>
       <c r="C881" s="283"/>
@@ -23678,7 +23678,7 @@
     <row r="887" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A887" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B887" s="225"/>
       <c r="C887" s="283"/>
@@ -23956,7 +23956,7 @@
     <row r="902" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A902" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B902" s="225"/>
       <c r="C902" s="283"/>
@@ -24287,7 +24287,7 @@
     <row r="917" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A917" s="265" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B917" s="305"/>
       <c r="C917" s="306"/>
@@ -24398,7 +24398,7 @@
     <row r="923" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A923" s="224" t="str">
         <f>"At "&amp;TEXT(J2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 01 Apr 2024:</v>
+        <v>At 01 Apr 2025:</v>
       </c>
       <c r="B923" s="225"/>
       <c r="C923" s="283"/>
@@ -24663,7 +24663,7 @@
     <row r="935" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A935" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B935" s="225"/>
       <c r="C935" s="283"/>
@@ -24789,7 +24789,7 @@
     <row r="941" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A941" s="224" t="str">
         <f>"At "&amp;TEXT(N2,"dd Mmm yyyy")&amp;":"</f>
-        <v>At 31 Mar 2026:</v>
+        <v>At 31 Mar 2027:</v>
       </c>
       <c r="B941" s="225"/>
       <c r="C941" s="283"/>
@@ -25113,7 +25113,7 @@
       <c r="E959" s="72"/>
       <c r="F959" s="140" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G959" s="140"/>
       <c r="H959" s="140"/>
@@ -25748,7 +25748,7 @@
       <c r="E994" s="72"/>
       <c r="F994" s="140" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G994" s="140"/>
       <c r="H994" s="140"/>
@@ -26598,7 +26598,7 @@
       <c r="E1037" s="72"/>
       <c r="F1037" s="140" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G1037" s="140"/>
       <c r="H1037" s="140"/>
@@ -27569,7 +27569,7 @@
       <c r="E1087" s="51"/>
       <c r="F1087" s="354" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G1087" s="306"/>
       <c r="H1087" s="306"/>
@@ -28684,7 +28684,7 @@
     <row r="1131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1131" s="224" t="str">
         <f>"Reserves at " &amp; TEXT(J2,"DD Mmm yyyy") &amp; ":"</f>
-        <v>Reserves at 01 Apr 2024:</v>
+        <v>Reserves at 01 Apr 2025:</v>
       </c>
       <c r="B1131" s="225"/>
       <c r="C1131" s="283"/>
@@ -28883,7 +28883,7 @@
     <row r="1140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1140" s="221" t="str">
         <f>"Retained profit at " &amp; TEXT(N2,"DD Mmm yyyy") &amp; ":"</f>
-        <v>Retained profit at 31 Mar 2026:</v>
+        <v>Retained profit at 31 Mar 2027:</v>
       </c>
       <c r="B1140" s="222"/>
       <c r="C1140" s="297"/>
@@ -29848,7 +29848,7 @@
       <c r="E1187" s="72"/>
       <c r="F1187" s="140" t="str">
         <f>TEXT(N2,"yyyy")</f>
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G1187" s="140"/>
       <c r="H1187" s="140"/>
@@ -30827,7 +30827,7 @@
     <row r="1237" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1237" s="266" t="str">
         <f>"Do your accounts start on " &amp; TEXT(J2,"dd Mmm yyyy") &amp; "?"</f>
-        <v>Do your accounts start on 01 Apr 2024?</v>
+        <v>Do your accounts start on 01 Apr 2025?</v>
       </c>
       <c r="B1237" s="266"/>
       <c r="C1237" s="266"/>
@@ -30859,7 +30859,7 @@
     <row r="1239" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1239" s="266" t="str">
         <f>"Do your accounts end on " &amp; TEXT(N2,"dd Mmm yyyy") &amp; "?"</f>
-        <v>Do your accounts end on 31 Mar 2026?</v>
+        <v>Do your accounts end on 31 Mar 2027?</v>
       </c>
       <c r="B1239" s="266"/>
       <c r="C1239" s="266"/>
@@ -30927,7 +30927,7 @@
       <c r="M1242" s="186"/>
       <c r="N1242" s="440">
         <f>J2</f>
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="O1242" s="441"/>
       <c r="P1242" s="26"/>
@@ -30991,7 +30991,7 @@
       <c r="M1245" s="107"/>
       <c r="N1245" s="442">
         <f>N2</f>
-        <v>46112</v>
+        <v>46477</v>
       </c>
       <c r="O1245" s="443"/>
       <c r="P1245" s="41"/>
@@ -49573,7 +49573,7 @@
     <row r="2138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2138" s="238" t="str">
         <f>"Financial year " &amp; [1]CorporationTax!$E$33</f>
-        <v>Financial year 2024</v>
+        <v>Financial year 2025</v>
       </c>
       <c r="B2138" s="239"/>
       <c r="C2138" s="212"/>
@@ -49813,7 +49813,7 @@
     <row r="2150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2150" s="238" t="str">
         <f>"Financial year " &amp; [1]CorporationTax!$E$34</f>
-        <v>Financial year 2025</v>
+        <v>Financial year 2026</v>
       </c>
       <c r="B2150" s="239"/>
       <c r="C2150" s="212"/>
